--- a/biology/Botanique/Piper_marginatum/Piper_marginatum.xlsx
+++ b/biology/Botanique/Piper_marginatum/Piper_marginatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piper marginatum est un arbrisseau néotropical de la famille des Piperaceae commun dans les zones rudérales ombragées.
-Il est commun sur le littoral guyanais, où on le connaît sous les noms de ti bombe, feuille bombe (Créole), utiuti kamwi (Palikur), pimenta-do-mato, Santa-Barbara (Portugais)[3], pikin man lembelembe (Aluku)[4], ou encore ailleurs cake bush, Anesi wiwiri, marigold pepper (anglais), Hinojo(espagnol).
+Il est commun sur le littoral guyanais, où on le connaît sous les noms de ti bombe, feuille bombe (Créole), utiuti kamwi (Palikur), pimenta-do-mato, Santa-Barbara (Portugais), pikin man lembelembe (Aluku), ou encore ailleurs cake bush, Anesi wiwiri, marigold pepper (anglais), Hinojo(espagnol).
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les populations Créoles se baignent et se frictionnent avec la décoction des feuilles pour soulager des démangeaisons, notamment liées aux piqûres d'insecte. Chez les Palikur, elle entre dans la composition de remèdes contre les maux de tête, la diarrhée et les troubles hépatiques[3].
-Cette plante est aussi utilisée en bain de vapeur, notamment pour ses vertus astringente afin de raffermir le vagin chez les populations Busi-nenge du Suriname[5].
-L'huile essentielle tirée de la plante[6] présente des propriétés larvicides sur le moustique Aedes aegypti[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les populations Créoles se baignent et se frictionnent avec la décoction des feuilles pour soulager des démangeaisons, notamment liées aux piqûres d'insecte. Chez les Palikur, elle entre dans la composition de remèdes contre les maux de tête, la diarrhée et les troubles hépatiques.
+Cette plante est aussi utilisée en bain de vapeur, notamment pour ses vertus astringente afin de raffermir le vagin chez les populations Busi-nenge du Suriname.
+L'huile essentielle tirée de la plante présente des propriétés larvicides sur le moustique Aedes aegypti.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses feuilles froissées dégagent une odeur fortement anisée en raison de leur huile essentielle riche en anéthol (environ 40 %). Elle contient aussi α et β-pinène, limonène, π-cymène, cinéol et β-eudesmol, des dérivés d'eugénol (méthyleugénol et méthylisoeugénol)[8],[3] et d'autres substances encore[9],[10],[11]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles froissées dégagent une odeur fortement anisée en raison de leur huile essentielle riche en anéthol (environ 40 %). Elle contient aussi α et β-pinène, limonène, π-cymène, cinéol et β-eudesmol, des dérivés d'eugénol (méthyleugénol et méthylisoeugénol), et d'autres substances encore
 </t>
         </is>
       </c>
